--- a/tests/data/input/一级测试用例-14001.xlsx
+++ b/tests/data/input/一级测试用例-14001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F75A2C-999D-4024-BC51-B83DA96E7B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="64">
   <si>
     <t>用例编号</t>
   </si>
@@ -57,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,6 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,19 +279,14 @@
   </si>
   <si>
     <t>social_query_else_cnt_24m=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,154 +298,34 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,198 +334,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -676,261 +375,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,16 +403,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,79 +421,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1294,29 +710,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
-    <col min="5" max="5" width="35.375" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>96</v>
       </c>
@@ -1374,7 +790,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>97</v>
       </c>
@@ -1400,7 +816,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="54" spans="1:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>98</v>
       </c>
@@ -1426,7 +842,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>99</v>
       </c>
@@ -1452,7 +868,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -1478,7 +894,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>101</v>
       </c>
@@ -1504,7 +920,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="108" spans="1:10">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>102</v>
       </c>
@@ -1528,7 +944,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="108" spans="1:10">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1552,7 +968,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>104</v>
       </c>
@@ -1578,7 +994,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>105</v>
       </c>
@@ -1604,7 +1020,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="67.5" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>106</v>
       </c>
@@ -1630,7 +1046,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>107</v>
       </c>
@@ -1656,7 +1072,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>108</v>
       </c>
@@ -1682,7 +1098,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>109</v>
       </c>
@@ -1708,7 +1124,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="54" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>110</v>
       </c>
@@ -1734,7 +1150,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>111</v>
       </c>
@@ -1760,7 +1176,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="189" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>112</v>
       </c>
@@ -1786,7 +1202,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>113</v>
       </c>
@@ -1810,7 +1226,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="189" spans="1:10">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>114</v>
       </c>
@@ -1836,7 +1252,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -1860,7 +1276,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="243" spans="1:10">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>116</v>
       </c>
@@ -1886,7 +1302,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>117</v>
       </c>
@@ -1901,7 +1317,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1911,7 +1327,7 @@
       <c r="J23" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-14001.xlsx
+++ b/tests/data/input/一级测试用例-14001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F75A2C-999D-4024-BC51-B83DA96E7B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>用例编号</t>
   </si>
@@ -63,7 +57,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -74,7 +67,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +140,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +150,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -279,14 +269,19 @@
   </si>
   <si>
     <t>social_query_else_cnt_24m=0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,34 +293,154 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +449,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -375,15 +676,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -403,16 +946,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,38 +964,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,29 +1297,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="29.08984375" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
-    <col min="5" max="5" width="35.36328125" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="40.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="35.3666666666667" customWidth="1"/>
+    <col min="6" max="6" width="28.45" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="4">
         <v>96</v>
       </c>
@@ -790,7 +1377,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A3" s="4">
         <v>97</v>
       </c>
@@ -816,7 +1403,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="54" spans="1:10">
       <c r="A4" s="4">
         <v>98</v>
       </c>
@@ -842,7 +1429,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A5" s="4">
         <v>99</v>
       </c>
@@ -868,7 +1455,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -894,7 +1481,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A7" s="4">
         <v>101</v>
       </c>
@@ -920,7 +1507,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A8" s="4">
         <v>102</v>
       </c>
@@ -944,7 +1531,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -968,7 +1555,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+    <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
       <c r="A10" s="4">
         <v>104</v>
       </c>
@@ -994,7 +1581,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A11" s="4">
         <v>105</v>
       </c>
@@ -1020,7 +1607,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+    <row r="12" s="1" customFormat="1" ht="67.5" spans="1:10">
       <c r="A12" s="4">
         <v>106</v>
       </c>
@@ -1046,7 +1633,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A13" s="4">
         <v>107</v>
       </c>
@@ -1072,7 +1659,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A14" s="4">
         <v>108</v>
       </c>
@@ -1098,7 +1685,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A15" s="4">
         <v>109</v>
       </c>
@@ -1124,7 +1711,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    <row r="16" s="1" customFormat="1" ht="54" spans="1:10">
       <c r="A16" s="4">
         <v>110</v>
       </c>
@@ -1150,7 +1737,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A17" s="4">
         <v>111</v>
       </c>
@@ -1176,7 +1763,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
+    <row r="18" s="1" customFormat="1" ht="189" spans="1:10">
       <c r="A18" s="4">
         <v>112</v>
       </c>
@@ -1202,7 +1789,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="19" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A19" s="4">
         <v>113</v>
       </c>
@@ -1226,7 +1813,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
+    <row r="20" s="1" customFormat="1" ht="189" spans="1:10">
       <c r="A20" s="4">
         <v>114</v>
       </c>
@@ -1252,7 +1839,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -1276,7 +1863,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="22" s="1" customFormat="1" ht="243" spans="1:10">
       <c r="A22" s="4">
         <v>116</v>
       </c>
@@ -1302,7 +1889,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="23" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A23" s="4">
         <v>117</v>
       </c>
@@ -1327,7 +1914,7 @@
       <c r="J23" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-14001.xlsx
+++ b/tests/data/input/一级测试用例-14001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407AE2E0-88B1-484A-B6E4-175ED6A5CEDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,6 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,15 +139,12 @@
     <t>social_query_mac_cnt</t>
   </si>
   <si>
-    <t>info_social.social_id;
-info_social.searched_organization="5"</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,10 +163,6 @@
     </r>
   </si>
   <si>
-    <t>info_social.social_id;
-info_social.searched_organization="2"</t>
-  </si>
-  <si>
     <t>social_query_mac_cnt=2</t>
   </si>
   <si>
@@ -270,18 +272,22 @@
   <si>
     <t>social_query_else_cnt_24m=0</t>
   </si>
+  <si>
+    <t>info_social.social_id;
+info_social.searched_organization=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_social.social_id;
+info_social.searched_organization=2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,52 +299,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,101 +314,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,198 +335,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -676,261 +376,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,16 +404,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,82 +422,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1297,29 +714,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="40.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="35.3666666666667" customWidth="1"/>
-    <col min="6" max="6" width="28.45" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="24.725" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>96</v>
       </c>
@@ -1377,7 +792,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>97</v>
       </c>
@@ -1403,7 +818,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="54" spans="1:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>98</v>
       </c>
@@ -1429,7 +844,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>99</v>
       </c>
@@ -1455,7 +870,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -1481,7 +896,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>101</v>
       </c>
@@ -1507,7 +922,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>102</v>
       </c>
@@ -1517,13 +932,13 @@
       <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
+      <c r="D8" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
@@ -1531,7 +946,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1541,13 +956,13 @@
       <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
+      <c r="D9" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>15</v>
@@ -1555,7 +970,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>104</v>
       </c>
@@ -1563,17 +978,17 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>15</v>
@@ -1581,7 +996,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>105</v>
       </c>
@@ -1589,17 +1004,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>15</v>
@@ -1607,7 +1022,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="67.5" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>106</v>
       </c>
@@ -1615,17 +1030,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>15</v>
@@ -1633,7 +1048,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>107</v>
       </c>
@@ -1641,17 +1056,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>15</v>
@@ -1659,7 +1074,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>108</v>
       </c>
@@ -1667,17 +1082,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>15</v>
@@ -1685,7 +1100,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>109</v>
       </c>
@@ -1693,17 +1108,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>15</v>
@@ -1711,7 +1126,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="54" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>110</v>
       </c>
@@ -1719,17 +1134,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>15</v>
@@ -1737,7 +1152,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>111</v>
       </c>
@@ -1745,17 +1160,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>15</v>
@@ -1763,7 +1178,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="189" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>112</v>
       </c>
@@ -1771,17 +1186,17 @@
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>15</v>
@@ -1789,7 +1204,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>113</v>
       </c>
@@ -1797,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>12</v>
@@ -1805,7 +1220,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="4"/>
       <c r="G19" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>15</v>
@@ -1813,7 +1228,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="189" spans="1:10">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>114</v>
       </c>
@@ -1821,17 +1236,17 @@
         <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>15</v>
@@ -1839,7 +1254,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -1847,15 +1262,15 @@
         <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>15</v>
@@ -1863,7 +1278,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="243" spans="1:10">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>116</v>
       </c>
@@ -1871,17 +1286,17 @@
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>15</v>
@@ -1889,7 +1304,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>117</v>
       </c>
@@ -1897,15 +1312,15 @@
         <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="14"/>
       <c r="G23" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>15</v>
@@ -1914,7 +1329,7 @@
       <c r="J23" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>